--- a/biology/Médecine/1139_en_santé_et_médecine/1139_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1139_en_santé_et_médecine/1139_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1139_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1139_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1139 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1139_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1139_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Des léproseries (« gafarias ») sont attestées au Portugal au moment du couronnement du roi Alphonse Ier[1].
-Première mention de la maladrerie Saint-Brice, située au lieu-dit Saint-Bris sur le territoire de l'actuelle commune déléguée de Fontaine-la-Soret, en Haute-Normandie, établissement converti en ermitage au XVIIIe siècle et aujourd'hui entièrement détruit[2].
-Fondation à Ripon en Angleterre par Thurstan, archevêque d'York, de la léproserie St. Mary Magdalene, destinée à recevoir tous les lépreux du district, mais qui, en 1520, n'accueillera plus que cinq indigents et deux pauvres prêtres[3].
-Première mention de l'hôpital Saint-Guilhem de Montpellier, fondé à l'initiative de Guilhem V, seigneur du lieu, et de sa femme, Ermesinde de Melgueil[4].
-Fondation d'une léproserie à Vassens, près de Coucy-le-Château, en Vermandois[5].
-« Une léproserie avec chapelle est attestée au lieu-dit Clos-Jacquet » à Auffay, en Normandie[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Des léproseries (« gafarias ») sont attestées au Portugal au moment du couronnement du roi Alphonse Ier.
+Première mention de la maladrerie Saint-Brice, située au lieu-dit Saint-Bris sur le territoire de l'actuelle commune déléguée de Fontaine-la-Soret, en Haute-Normandie, établissement converti en ermitage au XVIIIe siècle et aujourd'hui entièrement détruit.
+Fondation à Ripon en Angleterre par Thurstan, archevêque d'York, de la léproserie St. Mary Magdalene, destinée à recevoir tous les lépreux du district, mais qui, en 1520, n'accueillera plus que cinq indigents et deux pauvres prêtres.
+Première mention de l'hôpital Saint-Guilhem de Montpellier, fondé à l'initiative de Guilhem V, seigneur du lieu, et de sa femme, Ermesinde de Melgueil.
+Fondation d'une léproserie à Vassens, près de Coucy-le-Château, en Vermandois.
+« Une léproserie avec chapelle est attestée au lieu-dit Clos-Jacquet » à Auffay, en Normandie.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1139_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1139_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le IIe concile du Latran interdit aux clercs d'exercer la médecine en dehors des cloîtres[7],[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le IIe concile du Latran interdit aux clercs d'exercer la médecine en dehors des cloîtres,.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1139_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1139_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Guillaume, médecin cité dans une charte de l'abbaye Notre-Dame, maison-mère de l'ordre monastique de Chalais, à Voreppe, dans le diocèse de Grenoble[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Guillaume, médecin cité dans une charte de l'abbaye Notre-Dame, maison-mère de l'ordre monastique de Chalais, à Voreppe, dans le diocèse de Grenoble.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1139_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1139_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1138 ou mai 1139 : Avempace (né vers 1070), philosophe, mathématicien et médecin arabe[10],[11],[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1138 ou mai 1139 : Avempace (né vers 1070), philosophe, mathématicien et médecin arabe.
 </t>
         </is>
       </c>
